--- a/registration/workshop/data/duplicate_cols.xlsx
+++ b/registration/workshop/data/duplicate_cols.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Session</t>
+          <t>SessIOn</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
